--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Westland Petrel_New Zealand.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Westland Petrel_New Zealand.xlsx
@@ -4305,13 +4305,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA00B4E-1B49-4B82-8B7D-081AEA62BF5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF2275F8-F334-4523-A673-4DF84A542AB3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B57DA333-8FA3-4C85-850F-4E987591AA76}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB0CFE24-7FEC-4858-A8D2-EC33B7A5A372}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAFE7EE9-C594-46C2-824A-413B943CB328}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95FC0FCC-CDCD-4BAE-BF15-EF05CC5702F0}"/>
 </file>